--- a/report/基本設計書/基本設計書_I0004_詳細画面.xlsx
+++ b/report/基本設計書/基本設計書_I0004_詳細画面.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dffsa\git\ISS_mini_project\report\基本設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AD84E9-64ED-41B6-966F-5901F95A30D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251D5377-46A5-40DD-A1B3-01DC36326CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="106">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -429,10 +429,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>btnReplace</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>戻る</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -455,16 +451,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>変更画面へ移動</t>
-    <rPh sb="0" eb="2">
-      <t>ｼｮｳｻｲ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ｲﾄﾞｳ</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>戻るボタンを押下</t>
     <rPh sb="4" eb="6">
       <t>サクセイ</t>
@@ -480,13 +466,6 @@
   </si>
   <si>
     <t>I0003画面に遷移する。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>I0005画面に遷移する。</t>
-    <rPh sb="6" eb="8">
-      <t>ｲﾄﾞｳ</t>
-    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -617,12 +596,99 @@
     <t>noTitle</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>画面レイアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面レイアウト指摘対応</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022-06-12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>孟元な</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>btnRemove</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>btnUpdate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IE000３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IE0003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ｼｮｳｻｲｲﾄﾞｳ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>該当掲示板の内容を更新する。</t>
+    <rPh sb="6" eb="8">
+      <t>ｲﾄﾞｳ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>該当掲示板の内容を削除する。</t>
+    <rPh sb="6" eb="8">
+      <t>ｲﾄﾞｳ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>削除ボタンを押下</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>ｼｮｳｻｲｲﾄﾞｳ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-06-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>項目定義</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント一覧</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,6 +787,19 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -742,7 +821,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1104,6 +1183,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1113,7 +1313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1372,9 +1572,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1459,14 +1656,119 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="14" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1491,22 +1793,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>122249</xdr:colOff>
+      <xdr:colOff>132667</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>207818</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
+        <xdr:cNvPr id="28" name="그림 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4778CEF7-64EB-480B-864C-A5A324DD539F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1522,52 +1824,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="880109" y="1148715"/>
-          <a:ext cx="7471740" cy="3476625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>44767</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>159068</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>132410</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C501DCE5-AE34-4C35-C925-4DF1D89DF071}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2239327" y="1500188"/>
-          <a:ext cx="4649153" cy="2404122"/>
+          <a:off x="822960" y="1120140"/>
+          <a:ext cx="7539307" cy="3522518"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1578,16 +1836,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>13335</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>103524</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>248304</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>88668</xdr:rowOff>
+      <xdr:rowOff>35328</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1602,8 +1860,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1247775" y="1270635"/>
-          <a:ext cx="236874" cy="265833"/>
+          <a:off x="836295" y="1127760"/>
+          <a:ext cx="234969" cy="248688"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1654,93 +1912,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>32385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>34944</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="TextBox 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1722120" y="1224915"/>
-          <a:ext cx="861060" cy="268605"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>board</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>93345</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>156864</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1755,8 +1936,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2684145" y="1303020"/>
-          <a:ext cx="234969" cy="228600"/>
+          <a:off x="1173480" y="1152525"/>
+          <a:ext cx="233064" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1807,16 +1988,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>5443</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>206560</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>58783</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>191320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>238507</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>197036</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17527</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>181796</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1831,7 +2012,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2200003" y="1547680"/>
+          <a:off x="1430383" y="1974400"/>
           <a:ext cx="233064" cy="211456"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1888,16 +2069,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>240574</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>206560</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19594</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>191320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>199318</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>197036</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>252658</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>181796</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1912,7 +2093,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2709454" y="1547680"/>
+          <a:off x="1939834" y="1974400"/>
           <a:ext cx="233064" cy="211456"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1964,16 +2145,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>5443</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>33477</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>58783</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>18237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>238507</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>23953</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17527</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>8713</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1988,7 +2169,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2200003" y="1816557"/>
+          <a:off x="1430383" y="2243277"/>
           <a:ext cx="233064" cy="211456"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2040,16 +2221,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>240574</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>33477</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19594</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>18237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>199318</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>23953</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>252658</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>8713</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2064,7 +2245,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2709454" y="1816557"/>
+          <a:off x="1939834" y="2243277"/>
           <a:ext cx="233064" cy="211456"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2121,16 +2302,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>5443</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>108589</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>58783</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>93349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>238507</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>99064</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17527</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>83824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2145,7 +2326,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2200003" y="2112649"/>
+          <a:off x="1430383" y="2539369"/>
           <a:ext cx="233064" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2202,16 +2383,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>240574</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>108589</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19594</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>93349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2226,7 +2407,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2709454" y="2112649"/>
+          <a:off x="1939834" y="2539369"/>
           <a:ext cx="468086" cy="234311"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2283,16 +2464,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>105592</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>11706</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>158932</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>217446</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>20684</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2182</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>74024</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>207922</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2307,7 +2488,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2574472" y="2457726"/>
+          <a:off x="1804852" y="2884446"/>
           <a:ext cx="463732" cy="211456"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2372,16 +2553,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>199209</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>90083</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>222069</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>29123</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>80559</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>137161</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19599</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2396,7 +2577,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4588329" y="3420023"/>
+          <a:off x="4062549" y="3801023"/>
           <a:ext cx="463732" cy="211456"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2461,16 +2642,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>209007</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>80286</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3267</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>124099</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>70762</xdr:rowOff>
+      <xdr:colOff>192679</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9802</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2485,7 +2666,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2952207" y="3410226"/>
+          <a:off x="3020787" y="3791226"/>
           <a:ext cx="463732" cy="211456"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2551,15 +2732,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>128452</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>41098</xdr:rowOff>
+      <xdr:colOff>197032</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>201118</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>43544</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>31574</xdr:rowOff>
+      <xdr:colOff>112124</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>191594</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2574,8 +2755,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3694612" y="3833681"/>
-          <a:ext cx="463732" cy="212544"/>
+          <a:off x="3763192" y="4193998"/>
+          <a:ext cx="463732" cy="211456"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2625,7 +2806,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>5</a:t>
+            <a:t>6</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
             <a:solidFill>
@@ -2639,16 +2820,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>89263</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>820</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142603</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>206560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>48007</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>212276</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>101347</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>197036</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2663,7 +2844,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3106783" y="1562920"/>
+          <a:off x="2337163" y="1989640"/>
           <a:ext cx="233064" cy="211456"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2720,16 +2901,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>50074</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>820</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>103414</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>206560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>8818</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>212276</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>62158</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>197036</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2744,7 +2925,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3616234" y="1562920"/>
+          <a:off x="2846614" y="1989640"/>
           <a:ext cx="233064" cy="211456"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2796,16 +2977,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>174172</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>11706</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>227512</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>217446</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>89264</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2182</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142604</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>207922</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2820,7 +3001,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2094412" y="2457726"/>
+          <a:off x="1324792" y="2884446"/>
           <a:ext cx="463732" cy="211456"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2872,6 +3053,95 @@
               </a:solidFill>
             </a:rPr>
             <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>191589</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>21503</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>106681</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11979</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="타원 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B3BB217-2FCC-C6EF-4E20-806955862D2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5129349" y="3793403"/>
+          <a:ext cx="463732" cy="211456"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
             <a:solidFill>
@@ -3239,27 +3509,27 @@
       <c r="A3" s="80">
         <v>1</v>
       </c>
-      <c r="B3" s="111">
+      <c r="B3" s="110">
         <v>44706</v>
       </c>
-      <c r="C3" s="112" t="s">
+      <c r="C3" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="112" t="s">
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="113"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="112" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
       <c r="O3" s="82"/>
       <c r="P3" s="82"/>
       <c r="Q3" s="82"/>
@@ -3276,106 +3546,114 @@
       <c r="AB3" s="85"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A4" s="86">
+      <c r="A4" s="149">
         <v>2</v>
       </c>
-      <c r="B4" s="115"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="82"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="82"/>
-      <c r="AB4" s="88"/>
+      <c r="B4" s="134">
+        <v>44724</v>
+      </c>
+      <c r="C4" s="131" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="137" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="138"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="137" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="138"/>
+      <c r="L4" s="138"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="138"/>
+      <c r="O4" s="138"/>
+      <c r="P4" s="138"/>
+      <c r="Q4" s="138"/>
+      <c r="R4" s="138"/>
+      <c r="S4" s="138"/>
+      <c r="T4" s="138"/>
+      <c r="U4" s="138"/>
+      <c r="V4" s="138"/>
+      <c r="W4" s="138"/>
+      <c r="X4" s="138"/>
+      <c r="Y4" s="138"/>
+      <c r="Z4" s="138"/>
+      <c r="AA4" s="138"/>
+      <c r="AB4" s="146"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A5" s="80">
-        <v>3</v>
-      </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="81"/>
+      <c r="A5" s="150"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="81" t="s">
+        <v>104</v>
+      </c>
       <c r="D5" s="82"/>
       <c r="E5" s="82"/>
       <c r="F5" s="83"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="88"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="141"/>
+      <c r="P5" s="141"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="141"/>
+      <c r="T5" s="141"/>
+      <c r="U5" s="141"/>
+      <c r="V5" s="141"/>
+      <c r="W5" s="141"/>
+      <c r="X5" s="141"/>
+      <c r="Y5" s="141"/>
+      <c r="Z5" s="141"/>
+      <c r="AA5" s="141"/>
+      <c r="AB5" s="147"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A6" s="86">
-        <v>4</v>
-      </c>
-      <c r="B6" s="89"/>
-      <c r="C6" s="90"/>
+      <c r="A6" s="151"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="89" t="s">
+        <v>105</v>
+      </c>
       <c r="D6" s="84"/>
       <c r="E6" s="84"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="84"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="84"/>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="85"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
+      <c r="O6" s="144"/>
+      <c r="P6" s="144"/>
+      <c r="Q6" s="144"/>
+      <c r="R6" s="144"/>
+      <c r="S6" s="144"/>
+      <c r="T6" s="144"/>
+      <c r="U6" s="144"/>
+      <c r="V6" s="144"/>
+      <c r="W6" s="144"/>
+      <c r="X6" s="144"/>
+      <c r="Y6" s="144"/>
+      <c r="Z6" s="144"/>
+      <c r="AA6" s="144"/>
+      <c r="AB6" s="148"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7" s="80">
-        <v>5</v>
-      </c>
-      <c r="B7" s="87"/>
+        <v>3</v>
+      </c>
+      <c r="B7" s="86"/>
       <c r="C7" s="81"/>
       <c r="D7" s="82"/>
       <c r="E7" s="82"/>
@@ -3404,10 +3682,10 @@
       <c r="AB7" s="85"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A8" s="86">
-        <v>6</v>
-      </c>
-      <c r="B8" s="87"/>
+      <c r="A8" s="80">
+        <v>4</v>
+      </c>
+      <c r="B8" s="86"/>
       <c r="C8" s="81"/>
       <c r="D8" s="82"/>
       <c r="E8" s="82"/>
@@ -3433,20 +3711,20 @@
       <c r="Y8" s="82"/>
       <c r="Z8" s="82"/>
       <c r="AA8" s="82"/>
-      <c r="AB8" s="88"/>
+      <c r="AB8" s="87"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9" s="80">
-        <v>7</v>
-      </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="90"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="88"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="84"/>
       <c r="E9" s="84"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="89"/>
       <c r="H9" s="84"/>
-      <c r="I9" s="91"/>
+      <c r="I9" s="90"/>
       <c r="J9" s="84"/>
       <c r="K9" s="84"/>
       <c r="L9" s="84"/>
@@ -3468,17 +3746,17 @@
       <c r="AB9" s="85"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A10" s="86">
-        <v>8</v>
-      </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="90"/>
+      <c r="A10" s="80">
+        <v>6</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="84"/>
       <c r="E10" s="84"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="89"/>
       <c r="H10" s="84"/>
-      <c r="I10" s="91"/>
+      <c r="I10" s="90"/>
       <c r="J10" s="84"/>
       <c r="K10" s="84"/>
       <c r="L10" s="84"/>
@@ -3501,16 +3779,16 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11" s="80">
-        <v>9</v>
-      </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="90"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="88"/>
+      <c r="C11" s="89"/>
       <c r="D11" s="84"/>
       <c r="E11" s="84"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="84"/>
-      <c r="I11" s="91"/>
+      <c r="I11" s="90"/>
       <c r="J11" s="84"/>
       <c r="K11" s="84"/>
       <c r="L11" s="84"/>
@@ -3532,17 +3810,17 @@
       <c r="AB11" s="85"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A12" s="86">
-        <v>10</v>
-      </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
+      <c r="A12" s="80">
+        <v>8</v>
+      </c>
+      <c r="B12" s="88"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="84"/>
       <c r="E12" s="84"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="89"/>
       <c r="H12" s="84"/>
-      <c r="I12" s="91"/>
+      <c r="I12" s="90"/>
       <c r="J12" s="84"/>
       <c r="K12" s="84"/>
       <c r="L12" s="84"/>
@@ -3565,16 +3843,16 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13" s="80">
-        <v>11</v>
-      </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="88"/>
+      <c r="C13" s="89"/>
       <c r="D13" s="84"/>
       <c r="E13" s="84"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="89"/>
       <c r="H13" s="84"/>
-      <c r="I13" s="91"/>
+      <c r="I13" s="90"/>
       <c r="J13" s="84"/>
       <c r="K13" s="84"/>
       <c r="L13" s="84"/>
@@ -3596,17 +3874,17 @@
       <c r="AB13" s="85"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A14" s="86">
-        <v>12</v>
-      </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
+      <c r="A14" s="80">
+        <v>10</v>
+      </c>
+      <c r="B14" s="88"/>
+      <c r="C14" s="89"/>
       <c r="D14" s="84"/>
       <c r="E14" s="84"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="89"/>
       <c r="H14" s="84"/>
-      <c r="I14" s="91"/>
+      <c r="I14" s="90"/>
       <c r="J14" s="84"/>
       <c r="K14" s="84"/>
       <c r="L14" s="84"/>
@@ -3629,16 +3907,16 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15" s="80">
-        <v>13</v>
-      </c>
-      <c r="B15" s="89"/>
-      <c r="C15" s="90"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="88"/>
+      <c r="C15" s="89"/>
       <c r="D15" s="84"/>
       <c r="E15" s="84"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="89"/>
       <c r="H15" s="84"/>
-      <c r="I15" s="91"/>
+      <c r="I15" s="90"/>
       <c r="J15" s="84"/>
       <c r="K15" s="84"/>
       <c r="L15" s="84"/>
@@ -3660,17 +3938,17 @@
       <c r="AB15" s="85"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A16" s="86">
-        <v>14</v>
-      </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="90"/>
+      <c r="A16" s="80">
+        <v>12</v>
+      </c>
+      <c r="B16" s="88"/>
+      <c r="C16" s="89"/>
       <c r="D16" s="84"/>
       <c r="E16" s="84"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="89"/>
       <c r="H16" s="84"/>
-      <c r="I16" s="91"/>
+      <c r="I16" s="90"/>
       <c r="J16" s="84"/>
       <c r="K16" s="84"/>
       <c r="L16" s="84"/>
@@ -3693,16 +3971,16 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17" s="80">
-        <v>15</v>
-      </c>
-      <c r="B17" s="89"/>
-      <c r="C17" s="90"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
       <c r="D17" s="84"/>
       <c r="E17" s="84"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="89"/>
       <c r="H17" s="84"/>
-      <c r="I17" s="91"/>
+      <c r="I17" s="90"/>
       <c r="J17" s="84"/>
       <c r="K17" s="84"/>
       <c r="L17" s="84"/>
@@ -3724,17 +4002,17 @@
       <c r="AB17" s="85"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A18" s="86">
-        <v>16</v>
-      </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="90"/>
+      <c r="A18" s="80">
+        <v>14</v>
+      </c>
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="84"/>
       <c r="E18" s="84"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="89"/>
       <c r="H18" s="84"/>
-      <c r="I18" s="91"/>
+      <c r="I18" s="90"/>
       <c r="J18" s="84"/>
       <c r="K18" s="84"/>
       <c r="L18" s="84"/>
@@ -3757,16 +4035,16 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A19" s="80">
-        <v>17</v>
-      </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
       <c r="D19" s="84"/>
       <c r="E19" s="84"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="89"/>
       <c r="H19" s="84"/>
-      <c r="I19" s="91"/>
+      <c r="I19" s="90"/>
       <c r="J19" s="84"/>
       <c r="K19" s="84"/>
       <c r="L19" s="84"/>
@@ -3789,16 +4067,16 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A20" s="80">
-        <v>18</v>
-      </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="90"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="88"/>
+      <c r="C20" s="89"/>
       <c r="D20" s="84"/>
       <c r="E20" s="84"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="89"/>
       <c r="H20" s="84"/>
-      <c r="I20" s="91"/>
+      <c r="I20" s="90"/>
       <c r="J20" s="84"/>
       <c r="K20" s="84"/>
       <c r="L20" s="84"/>
@@ -3820,17 +4098,17 @@
       <c r="AB20" s="85"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A21" s="86">
-        <v>19</v>
-      </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="90"/>
+      <c r="A21" s="80">
+        <v>17</v>
+      </c>
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="84"/>
       <c r="E21" s="84"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="89"/>
       <c r="H21" s="84"/>
-      <c r="I21" s="91"/>
+      <c r="I21" s="90"/>
       <c r="J21" s="84"/>
       <c r="K21" s="84"/>
       <c r="L21" s="84"/>
@@ -3853,16 +4131,16 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A22" s="80">
-        <v>20</v>
-      </c>
-      <c r="B22" s="89"/>
-      <c r="C22" s="90"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
       <c r="D22" s="84"/>
       <c r="E22" s="84"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="89"/>
       <c r="H22" s="84"/>
-      <c r="I22" s="91"/>
+      <c r="I22" s="90"/>
       <c r="J22" s="84"/>
       <c r="K22" s="84"/>
       <c r="L22" s="84"/>
@@ -3885,14 +4163,14 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A23" s="80"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="90"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="89"/>
       <c r="D23" s="84"/>
       <c r="E23" s="84"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="89"/>
       <c r="H23" s="84"/>
-      <c r="I23" s="91"/>
+      <c r="I23" s="90"/>
       <c r="J23" s="84"/>
       <c r="K23" s="84"/>
       <c r="L23" s="84"/>
@@ -3914,65 +4192,72 @@
       <c r="AB23" s="85"/>
     </row>
     <row r="24" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="92"/>
-      <c r="B24" s="93"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="96"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="95"/>
-      <c r="U24" s="95"/>
-      <c r="V24" s="95"/>
-      <c r="W24" s="95"/>
-      <c r="X24" s="95"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="95"/>
-      <c r="AA24" s="95"/>
-      <c r="AB24" s="97"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="94"/>
+      <c r="S24" s="94"/>
+      <c r="T24" s="94"/>
+      <c r="U24" s="94"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="94"/>
+      <c r="X24" s="94"/>
+      <c r="Y24" s="94"/>
+      <c r="Z24" s="94"/>
+      <c r="AA24" s="94"/>
+      <c r="AB24" s="96"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="98"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="98"/>
-      <c r="T25" s="98"/>
-      <c r="U25" s="98"/>
-      <c r="V25" s="98"/>
-      <c r="W25" s="98"/>
-      <c r="X25" s="98"/>
-      <c r="Y25" s="98"/>
-      <c r="Z25" s="98"/>
-      <c r="AA25" s="98"/>
-      <c r="AB25" s="98"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="97"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="97"/>
+      <c r="S25" s="97"/>
+      <c r="T25" s="97"/>
+      <c r="U25" s="97"/>
+      <c r="V25" s="97"/>
+      <c r="W25" s="97"/>
+      <c r="X25" s="97"/>
+      <c r="Y25" s="97"/>
+      <c r="Z25" s="97"/>
+      <c r="AA25" s="97"/>
+      <c r="AB25" s="97"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="G4:I6"/>
+    <mergeCell ref="J4:AB6"/>
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
@@ -3981,11 +4266,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AQ17" sqref="AQ17"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4068,7 +4354,9 @@
         <v>3</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="99"/>
+      <c r="S2" s="98" t="s">
+        <v>90</v>
+      </c>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
@@ -4078,7 +4366,9 @@
         <v>4</v>
       </c>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="100"/>
+      <c r="AA2" s="99" t="s">
+        <v>53</v>
+      </c>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
@@ -4555,10 +4845,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4648,7 +4941,9 @@
         <v>3</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="99"/>
+      <c r="S2" s="98" t="s">
+        <v>90</v>
+      </c>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
@@ -4658,7 +4953,9 @@
         <v>4</v>
       </c>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="100"/>
+      <c r="AA2" s="99" t="s">
+        <v>91</v>
+      </c>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
@@ -4838,14 +5135,14 @@
       <c r="A7" s="34">
         <v>3</v>
       </c>
-      <c r="B7" s="117" t="s">
-        <v>87</v>
+      <c r="B7" s="114" t="s">
+        <v>84</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
       <c r="F7" s="40" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G7" s="41"/>
       <c r="H7" s="41"/>
@@ -4861,7 +5158,7 @@
       <c r="N7" s="41"/>
       <c r="O7" s="41"/>
       <c r="P7" s="37" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q7" s="41"/>
       <c r="R7" s="41"/>
@@ -4894,20 +5191,20 @@
       <c r="A8" s="34">
         <v>4</v>
       </c>
-      <c r="B8" s="117" t="s">
-        <v>88</v>
+      <c r="B8" s="114" t="s">
+        <v>85</v>
       </c>
       <c r="C8" s="45"/>
       <c r="D8" s="45"/>
       <c r="E8" s="45"/>
       <c r="F8" s="40" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G8" s="41"/>
       <c r="H8" s="41"/>
       <c r="I8" s="46"/>
       <c r="J8" s="40" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="K8" s="41"/>
       <c r="L8" s="37" t="s">
@@ -4923,7 +5220,7 @@
       <c r="R8" s="41"/>
       <c r="S8" s="41"/>
       <c r="T8" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U8" s="41"/>
       <c r="V8" s="41"/>
@@ -4950,14 +5247,14 @@
       <c r="A9" s="34">
         <v>5</v>
       </c>
-      <c r="B9" s="117" t="s">
-        <v>84</v>
+      <c r="B9" s="114" t="s">
+        <v>81</v>
       </c>
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
       <c r="E9" s="45"/>
       <c r="F9" s="40" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
@@ -5007,19 +5304,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C10" s="45"/>
       <c r="D10" s="45"/>
       <c r="E10" s="45"/>
       <c r="F10" s="40" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
       <c r="I10" s="46"/>
       <c r="J10" s="40" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="K10" s="41"/>
       <c r="L10" s="37" t="s">
@@ -5035,7 +5332,7 @@
       <c r="R10" s="41"/>
       <c r="S10" s="41"/>
       <c r="T10" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U10" s="41"/>
       <c r="V10" s="41"/>
@@ -5063,13 +5360,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C11" s="45"/>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
       <c r="F11" s="40" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
@@ -5125,13 +5422,13 @@
       <c r="D12" s="45"/>
       <c r="E12" s="45"/>
       <c r="F12" s="37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
       <c r="I12" s="46"/>
       <c r="J12" s="40" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="K12" s="41"/>
       <c r="L12" s="37" t="s">
@@ -5147,7 +5444,7 @@
       <c r="R12" s="41"/>
       <c r="S12" s="41"/>
       <c r="T12" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U12" s="41"/>
       <c r="V12" s="41"/>
@@ -5175,13 +5472,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
       <c r="F13" s="40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
@@ -5197,7 +5494,7 @@
       <c r="N13" s="41"/>
       <c r="O13" s="41"/>
       <c r="P13" s="35" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="41"/>
       <c r="R13" s="41"/>
@@ -5231,19 +5528,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45"/>
       <c r="F14" s="40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
       <c r="I14" s="46"/>
       <c r="J14" s="40" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="K14" s="41"/>
       <c r="L14" s="37" t="s">
@@ -5259,7 +5556,7 @@
       <c r="R14" s="41"/>
       <c r="S14" s="41"/>
       <c r="T14" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U14" s="41"/>
       <c r="V14" s="41"/>
@@ -5287,13 +5584,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45"/>
       <c r="F15" s="40" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
@@ -5309,7 +5606,7 @@
       <c r="N15" s="41"/>
       <c r="O15" s="41"/>
       <c r="P15" s="37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q15" s="41"/>
       <c r="R15" s="41"/>
@@ -5343,19 +5640,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C16" s="45"/>
       <c r="D16" s="45"/>
       <c r="E16" s="45"/>
       <c r="F16" s="40" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
       <c r="I16" s="46"/>
       <c r="J16" s="40" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="K16" s="41"/>
       <c r="L16" s="37" t="s">
@@ -5371,7 +5668,7 @@
       <c r="R16" s="41"/>
       <c r="S16" s="41"/>
       <c r="T16" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U16" s="41"/>
       <c r="V16" s="41"/>
@@ -5421,7 +5718,7 @@
       <c r="N17" s="41"/>
       <c r="O17" s="41"/>
       <c r="P17" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="41"/>
       <c r="R17" s="41"/>
@@ -5461,7 +5758,7 @@
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
       <c r="F18" s="37" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
@@ -5477,7 +5774,7 @@
       <c r="N18" s="41"/>
       <c r="O18" s="41"/>
       <c r="P18" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q18" s="41"/>
       <c r="R18" s="41"/>
@@ -5507,94 +5804,116 @@
       <c r="AF18" s="42"/>
     </row>
     <row r="19" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="34">
+      <c r="A19" s="115">
         <v>15</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="116" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="121" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="119"/>
+      <c r="L19" s="118" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="119"/>
+      <c r="P19" s="118" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q19" s="119"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="119"/>
+      <c r="T19" s="121" t="s">
+        <v>26</v>
+      </c>
+      <c r="U19" s="119"/>
+      <c r="V19" s="119"/>
+      <c r="W19" s="121" t="s">
+        <v>97</v>
+      </c>
+      <c r="X19" s="122"/>
+      <c r="Y19" s="122"/>
+      <c r="Z19" s="122"/>
+      <c r="AA19" s="121" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB19" s="123"/>
+      <c r="AC19" s="122" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD19" s="122"/>
+      <c r="AE19" s="121" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF19" s="124"/>
+    </row>
+    <row r="20" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="34">
+        <v>16</v>
+      </c>
+      <c r="B20" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" s="41"/>
-      <c r="L19" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD19" s="41"/>
-      <c r="AE19" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF19" s="47"/>
-    </row>
-    <row r="20" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="44"/>
-      <c r="B20" s="48"/>
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
-      <c r="F20" s="37"/>
+      <c r="F20" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
       <c r="I20" s="46"/>
-      <c r="J20" s="40"/>
+      <c r="J20" s="40" t="s">
+        <v>26</v>
+      </c>
       <c r="K20" s="41"/>
-      <c r="L20" s="40"/>
+      <c r="L20" s="37" t="s">
+        <v>28</v>
+      </c>
       <c r="M20" s="41"/>
       <c r="N20" s="41"/>
       <c r="O20" s="41"/>
-      <c r="P20" s="37"/>
+      <c r="P20" s="37" t="s">
+        <v>36</v>
+      </c>
       <c r="Q20" s="41"/>
       <c r="R20" s="41"/>
       <c r="S20" s="41"/>
-      <c r="T20" s="37"/>
+      <c r="T20" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="U20" s="41"/>
       <c r="V20" s="41"/>
-      <c r="W20" s="37"/>
+      <c r="W20" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="X20" s="41"/>
       <c r="Y20" s="41"/>
       <c r="Z20" s="41"/>
-      <c r="AA20" s="37"/>
+      <c r="AA20" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="AB20" s="46"/>
-      <c r="AC20" s="41"/>
+      <c r="AC20" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="AD20" s="41"/>
-      <c r="AE20" s="40"/>
-      <c r="AF20" s="49"/>
+      <c r="AE20" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF20" s="47"/>
     </row>
     <row r="21" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="44"/>
@@ -5707,11 +6026,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5794,7 +6114,9 @@
         <v>3</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="99"/>
+      <c r="S2" s="98" t="s">
+        <v>103</v>
+      </c>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
@@ -5804,7 +6126,9 @@
         <v>4</v>
       </c>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="100"/>
+      <c r="AA2" s="99" t="s">
+        <v>53</v>
+      </c>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
@@ -5857,55 +6181,55 @@
       <c r="AF4" s="33"/>
     </row>
     <row r="5" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="101">
+      <c r="A5" s="100">
         <v>1</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="104" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="107" t="s">
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="104" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
-      <c r="AA5" s="103"/>
-      <c r="AB5" s="103"/>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="110"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="102"/>
+      <c r="S5" s="102"/>
+      <c r="T5" s="102"/>
+      <c r="U5" s="102"/>
+      <c r="V5" s="102"/>
+      <c r="W5" s="102"/>
+      <c r="X5" s="102"/>
+      <c r="Y5" s="102"/>
+      <c r="Z5" s="102"/>
+      <c r="AA5" s="102"/>
+      <c r="AB5" s="102"/>
+      <c r="AC5" s="102"/>
+      <c r="AD5" s="102"/>
+      <c r="AE5" s="102"/>
+      <c r="AF5" s="109"/>
     </row>
     <row r="6" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="44">
         <v>2</v>
       </c>
-      <c r="B6" s="102" t="s">
-        <v>66</v>
+      <c r="B6" s="101" t="s">
+        <v>98</v>
       </c>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
@@ -5917,15 +6241,15 @@
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
       <c r="J6" s="51"/>
-      <c r="K6" s="107" t="s">
-        <v>68</v>
+      <c r="K6" s="106" t="s">
+        <v>66</v>
       </c>
       <c r="L6" s="52"/>
       <c r="M6" s="52"/>
       <c r="N6" s="52"/>
       <c r="O6" s="53"/>
       <c r="P6" s="37" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="Q6" s="41"/>
       <c r="R6" s="41"/>
@@ -5945,26 +6269,36 @@
       <c r="AF6" s="47"/>
     </row>
     <row r="7" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="44"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
+      <c r="A7" s="125">
+        <v>3</v>
+      </c>
+      <c r="B7" s="126" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="130"/>
+      <c r="P7" s="118" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="119"/>
+      <c r="T7" s="119"/>
       <c r="U7" s="41"/>
       <c r="V7" s="41"/>
       <c r="W7" s="41"/>
@@ -6634,9 +6968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -6719,7 +7051,7 @@
         <v>3</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="99"/>
+      <c r="S2" s="98"/>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
@@ -6729,7 +7061,7 @@
         <v>4</v>
       </c>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="100"/>
+      <c r="AA2" s="99"/>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>

--- a/report/基本設計書/基本設計書_I0004_詳細画面.xlsx
+++ b/report/基本設計書/基本設計書_I0004_詳細画面.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dffsa\git\ISS_mini_project\report\基本設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ISS\report\基本設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251D5377-46A5-40DD-A1B3-01DC36326CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="20" r:id="rId1"/>
@@ -21,12 +20,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">イベント一覧!$A$1:$AG$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">画面レイアウト!$A$1:$AG$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">項目定義!$A$1:$AG$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">修正履歴!$A$1:$AC$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">入力チェック一覧!$A$1:$AG$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">項目定義!$A$1:$AG$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">画面レイアウト!$A$1:$AG$23</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="118">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -268,10 +267,6 @@
   </si>
   <si>
     <t>ラベル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイト名ラベル</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -417,14 +412,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>戻るボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変更ボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>btnBack</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -473,14 +460,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>表題</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作成者_タイトル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>userTittle</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -489,10 +468,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>作成日時_タイトル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>作成日時</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -502,10 +477,6 @@
   </si>
   <si>
     <t>createTime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内容_タイトル</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -544,11 +515,174 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>tittleName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>noTitle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面レイアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面レイアウト指摘対応</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>btnRemove</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>btnUpdate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IE0003</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ｼｮｳｻｲｲﾄﾞｳ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>該当掲示板の内容を更新する。</t>
+    <rPh sb="6" eb="8">
+      <t>ｲﾄﾞｳ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>該当掲示板の内容を削除する。</t>
+    <rPh sb="6" eb="8">
+      <t>ｲﾄﾞｳ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>削除ボタンを押下</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>ｼｮｳｻｲｲﾄﾞｳ</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-06-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>項目定義</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベント一覧</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>tittleNameTittle</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>tittleName</t>
+    <t>ページ名ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PagemeiRaberu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Board</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表題</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者_タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日時_タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成日時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容_タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻るボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイト名ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番号</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -560,7 +694,17 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>番号</t>
+      <t>番</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Meiryo"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>号</t>
     </r>
     <r>
       <rPr>
@@ -585,128 +729,41 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>番号</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>noTitle</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面レイアウト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面レイアウト指摘対応</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2022-06-12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>孟元な</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除ボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>btnRemove</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>btnUpdate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IE000３</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IE0003</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変更</t>
-    <rPh sb="0" eb="2">
-      <t>ｼｮｳｻｲｲﾄﾞｳ</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>該当掲示板の内容を更新する。</t>
-    <rPh sb="6" eb="8">
-      <t>ｲﾄﾞｳ</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>該当掲示板の内容を削除する。</t>
-    <rPh sb="6" eb="8">
-      <t>ｲﾄﾞｳ</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>削除ボタンを押下</t>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除</t>
-    <rPh sb="0" eb="2">
-      <t>ｼｮｳｻｲｲﾄﾞｳ</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022-06-12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>項目定義</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イベント一覧</t>
+    <t>孟元永</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>孟元永</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>孟元永</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -735,14 +792,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -776,13 +833,6 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Meiryo"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="새굴림"/>
       <family val="2"/>
       <charset val="129"/>
@@ -792,11 +842,21 @@
       <color rgb="FFFF0000"/>
       <name val="Meiryo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Meiryo"/>
       <family val="2"/>
     </font>
@@ -1313,7 +1373,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1470,15 +1530,6 @@
     <xf numFmtId="11" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1656,65 +1707,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="14" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1769,11 +1763,125 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="15" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="16" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1808,7 +1916,7 @@
         <xdr:cNvPr id="28" name="그림 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4778CEF7-64EB-480B-864C-A5A324DD539F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4778CEF7-64EB-480B-864C-A5A324DD539F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1824,8 +1932,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="822960" y="1120140"/>
-          <a:ext cx="7539307" cy="3522518"/>
+          <a:off x="828675" y="1209675"/>
+          <a:ext cx="7590742" cy="3779693"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1852,7 +1960,7 @@
         <xdr:cNvPr id="13" name="타원 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1928,7 +2036,7 @@
         <xdr:cNvPr id="27" name="타원 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2004,7 +2112,7 @@
         <xdr:cNvPr id="20" name="타원 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D347473-905F-AFFE-A22A-97297544C85B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D347473-905F-AFFE-A22A-97297544C85B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2050,18 +2158,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>3</a:t>
+            <a:t>4</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2085,7 +2188,7 @@
         <xdr:cNvPr id="21" name="타원 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E433D09-67FB-4B1F-E611-F3EFC787BB53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E433D09-67FB-4B1F-E611-F3EFC787BB53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2136,7 +2239,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>4</a:t>
+            <a:t>5</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2161,7 +2264,7 @@
         <xdr:cNvPr id="22" name="타원 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12814015-92D9-DB8F-2CA1-F57772F2A5DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{12814015-92D9-DB8F-2CA1-F57772F2A5DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2212,7 +2315,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>7</a:t>
+            <a:t>8</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2237,7 +2340,7 @@
         <xdr:cNvPr id="23" name="타원 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEBE3E4-BE18-511F-0DA0-87454CCA6A75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CEEBE3E4-BE18-511F-0DA0-87454CCA6A75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,87 +2350,6 @@
         <a:xfrm>
           <a:off x="1939834" y="2243277"/>
           <a:ext cx="233064" cy="211456"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent5">
-              <a:lumMod val="40000"/>
-              <a:lumOff val="60000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>8</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>58783</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>93349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>17527</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>83824</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="타원 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25DC2B5C-A2ED-FA9E-7157-DB34C0F0BBF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1430383" y="2539369"/>
-          <a:ext cx="233064" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2383,23 +2405,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19594</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>210094</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>93349</xdr:rowOff>
+      <xdr:rowOff>121924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>127635</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>135255</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="타원 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C3BFA3E-F9A6-1350-740E-6EC3F64D6EB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C3BFA3E-F9A6-1350-740E-6EC3F64D6EB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2407,8 +2429,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1939834" y="2539369"/>
-          <a:ext cx="468086" cy="234311"/>
+          <a:off x="1314994" y="2760349"/>
+          <a:ext cx="469991" cy="251456"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2480,7 +2502,7 @@
         <xdr:cNvPr id="29" name="타원 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4631CF2E-C408-557B-799E-3DB4D99FA301}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4631CF2E-C408-557B-799E-3DB4D99FA301}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2531,21 +2553,8 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>1</a:t>
+            <a:t>13</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2569,7 +2578,7 @@
         <xdr:cNvPr id="32" name="타원 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C78B615-A80E-E9CF-B14C-2E119BBAA2FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C78B615-A80E-E9CF-B14C-2E119BBAA2FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2620,21 +2629,8 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>1</a:t>
+            <a:t>15</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>4</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2658,7 +2654,7 @@
         <xdr:cNvPr id="33" name="타원 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F19C125C-6B65-FEC6-2AD0-AB2E6D6EE19A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F19C125C-6B65-FEC6-2AD0-AB2E6D6EE19A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2709,21 +2705,8 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>1</a:t>
+            <a:t>14</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2747,7 +2730,7 @@
         <xdr:cNvPr id="34" name="타원 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C8770CB-EACA-A44F-1C86-5DFE285A2A49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C8770CB-EACA-A44F-1C86-5DFE285A2A49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,21 +2781,8 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>1</a:t>
+            <a:t>17</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>6</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2836,7 +2806,7 @@
         <xdr:cNvPr id="19" name="타원 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{461836D0-783E-4563-2E94-0830460B88A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{461836D0-783E-4563-2E94-0830460B88A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2887,7 +2857,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>5</a:t>
+            <a:t>6</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
             <a:solidFill>
@@ -2917,7 +2887,7 @@
         <xdr:cNvPr id="30" name="타원 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B32ED16C-1F2D-EFB9-1BA2-43918E98464A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B32ED16C-1F2D-EFB9-1BA2-43918E98464A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2968,7 +2938,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>6</a:t>
+            <a:t>7</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2993,7 +2963,7 @@
         <xdr:cNvPr id="31" name="타원 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EFD0797-812A-08D3-DF1F-91782EEA4190}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5EFD0797-812A-08D3-DF1F-91782EEA4190}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3044,21 +3014,8 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>1</a:t>
+            <a:t>12</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3082,7 +3039,7 @@
         <xdr:cNvPr id="35" name="타원 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B3BB217-2FCC-C6EF-4E20-806955862D2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B3BB217-2FCC-C6EF-4E20-806955862D2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3133,15 +3090,164 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>1</a:t>
+            <a:t>16</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>220708</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>117025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>179452</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>107501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="타원 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3D347473-905F-AFFE-A22A-97297544C85B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4087858" y="1802950"/>
+          <a:ext cx="234969" cy="228601"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>229144</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>121924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>146685</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="타원 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C3BFA3E-F9A6-1350-740E-6EC3F64D6EB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1886494" y="2760349"/>
+          <a:ext cx="469991" cy="251456"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>5</a:t>
+            <a:t>11</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100">
             <a:solidFill>
@@ -3452,803 +3558,805 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4" style="73" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="73" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="3.69921875" style="73"/>
+    <col min="1" max="1" width="4" style="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="70" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="3.75" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A2" s="74" t="s">
+    <row r="1" spans="1:28" ht="19.5" thickBot="1"/>
+    <row r="2" spans="1:28">
+      <c r="A2" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="C2" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="76" t="s">
+      <c r="H2" s="74"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="79"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A3" s="80">
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="76"/>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="77">
         <v>1</v>
       </c>
-      <c r="B3" s="110">
+      <c r="B3" s="107">
         <v>44706</v>
       </c>
-      <c r="C3" s="111" t="s">
+      <c r="C3" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="111" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="112"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="112" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="82"/>
-      <c r="Y3" s="82"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="85"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A4" s="149">
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="108" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="109"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="82"/>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="127">
         <v>2</v>
       </c>
-      <c r="B4" s="134">
+      <c r="B4" s="112">
         <v>44724</v>
       </c>
-      <c r="C4" s="131" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="137" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="138"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="137" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" s="138"/>
-      <c r="L4" s="138"/>
-      <c r="M4" s="138"/>
-      <c r="N4" s="138"/>
-      <c r="O4" s="138"/>
-      <c r="P4" s="138"/>
-      <c r="Q4" s="138"/>
-      <c r="R4" s="138"/>
-      <c r="S4" s="138"/>
-      <c r="T4" s="138"/>
-      <c r="U4" s="138"/>
-      <c r="V4" s="138"/>
-      <c r="W4" s="138"/>
-      <c r="X4" s="138"/>
-      <c r="Y4" s="138"/>
-      <c r="Z4" s="138"/>
-      <c r="AA4" s="138"/>
-      <c r="AB4" s="146"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A5" s="150"/>
-      <c r="B5" s="135"/>
-      <c r="C5" s="81" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="142"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="141"/>
-      <c r="P5" s="141"/>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="141"/>
-      <c r="S5" s="141"/>
-      <c r="T5" s="141"/>
-      <c r="U5" s="141"/>
-      <c r="V5" s="141"/>
-      <c r="W5" s="141"/>
-      <c r="X5" s="141"/>
-      <c r="Y5" s="141"/>
-      <c r="Z5" s="141"/>
-      <c r="AA5" s="141"/>
-      <c r="AB5" s="147"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A6" s="151"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="89" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="144"/>
-      <c r="P6" s="144"/>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="144"/>
-      <c r="S6" s="144"/>
-      <c r="T6" s="144"/>
-      <c r="U6" s="144"/>
-      <c r="V6" s="144"/>
-      <c r="W6" s="144"/>
-      <c r="X6" s="144"/>
-      <c r="Y6" s="144"/>
-      <c r="Z6" s="144"/>
-      <c r="AA6" s="144"/>
-      <c r="AB6" s="148"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A7" s="80">
+      <c r="C4" s="159" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="115" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="116"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="124"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="128"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="162" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="119"/>
+      <c r="Q5" s="119"/>
+      <c r="R5" s="119"/>
+      <c r="S5" s="119"/>
+      <c r="T5" s="119"/>
+      <c r="U5" s="119"/>
+      <c r="V5" s="119"/>
+      <c r="W5" s="119"/>
+      <c r="X5" s="119"/>
+      <c r="Y5" s="119"/>
+      <c r="Z5" s="119"/>
+      <c r="AA5" s="119"/>
+      <c r="AB5" s="125"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="129"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="165" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="121"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="122"/>
+      <c r="N6" s="122"/>
+      <c r="O6" s="122"/>
+      <c r="P6" s="122"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="122"/>
+      <c r="S6" s="122"/>
+      <c r="T6" s="122"/>
+      <c r="U6" s="122"/>
+      <c r="V6" s="122"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="122"/>
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="122"/>
+      <c r="AA6" s="122"/>
+      <c r="AB6" s="126"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="77">
         <v>3</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="84"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="85"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A8" s="80">
+      <c r="B7" s="158"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="82"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="77">
         <v>4</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="82"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="82"/>
-      <c r="AB8" s="87"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A9" s="80">
+      <c r="B8" s="83"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="79"/>
+      <c r="T8" s="79"/>
+      <c r="U8" s="79"/>
+      <c r="V8" s="79"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="79"/>
+      <c r="Y8" s="79"/>
+      <c r="Z8" s="79"/>
+      <c r="AA8" s="79"/>
+      <c r="AB8" s="84"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="77">
         <v>5</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="84"/>
-      <c r="T9" s="84"/>
-      <c r="U9" s="84"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="84"/>
-      <c r="Z9" s="84"/>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="85"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A10" s="80">
+      <c r="B9" s="85"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="81"/>
+      <c r="T9" s="81"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="81"/>
+      <c r="W9" s="81"/>
+      <c r="X9" s="81"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="81"/>
+      <c r="AA9" s="81"/>
+      <c r="AB9" s="82"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="77">
         <v>6</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="84"/>
-      <c r="U10" s="84"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="84"/>
-      <c r="X10" s="84"/>
-      <c r="Y10" s="84"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="85"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A11" s="80">
+      <c r="B10" s="85"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="81"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="81"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="81"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="81"/>
+      <c r="AA10" s="81"/>
+      <c r="AB10" s="82"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="77">
         <v>7</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="84"/>
-      <c r="U11" s="84"/>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="84"/>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="84"/>
-      <c r="AB11" s="85"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A12" s="80">
+      <c r="B11" s="85"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="81"/>
+      <c r="U11" s="81"/>
+      <c r="V11" s="81"/>
+      <c r="W11" s="81"/>
+      <c r="X11" s="81"/>
+      <c r="Y11" s="81"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="82"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="77">
         <v>8</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="84"/>
-      <c r="T12" s="84"/>
-      <c r="U12" s="84"/>
-      <c r="V12" s="84"/>
-      <c r="W12" s="84"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="84"/>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="84"/>
-      <c r="AB12" s="85"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A13" s="80">
+      <c r="B12" s="85"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="81"/>
+      <c r="U12" s="81"/>
+      <c r="V12" s="81"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="82"/>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="77">
         <v>9</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="84"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="84"/>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="85"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A14" s="80">
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="81"/>
+      <c r="U13" s="81"/>
+      <c r="V13" s="81"/>
+      <c r="W13" s="81"/>
+      <c r="X13" s="81"/>
+      <c r="Y13" s="81"/>
+      <c r="Z13" s="81"/>
+      <c r="AA13" s="81"/>
+      <c r="AB13" s="82"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="77">
         <v>10</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="84"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="84"/>
-      <c r="X14" s="84"/>
-      <c r="Y14" s="84"/>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="84"/>
-      <c r="AB14" s="85"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A15" s="80">
+      <c r="B14" s="85"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="81"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="82"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="77">
         <v>11</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="84"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="84"/>
-      <c r="Y15" s="84"/>
-      <c r="Z15" s="84"/>
-      <c r="AA15" s="84"/>
-      <c r="AB15" s="85"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A16" s="80">
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="81"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="81"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="81"/>
+      <c r="W15" s="81"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="81"/>
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="81"/>
+      <c r="AB15" s="82"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="77">
         <v>12</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="84"/>
-      <c r="T16" s="84"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="84"/>
-      <c r="X16" s="84"/>
-      <c r="Y16" s="84"/>
-      <c r="Z16" s="84"/>
-      <c r="AA16" s="84"/>
-      <c r="AB16" s="85"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A17" s="80">
+      <c r="B16" s="85"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="81"/>
+      <c r="U16" s="81"/>
+      <c r="V16" s="81"/>
+      <c r="W16" s="81"/>
+      <c r="X16" s="81"/>
+      <c r="Y16" s="81"/>
+      <c r="Z16" s="81"/>
+      <c r="AA16" s="81"/>
+      <c r="AB16" s="82"/>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="77">
         <v>13</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="84"/>
-      <c r="U17" s="84"/>
-      <c r="V17" s="84"/>
-      <c r="W17" s="84"/>
-      <c r="X17" s="84"/>
-      <c r="Y17" s="84"/>
-      <c r="Z17" s="84"/>
-      <c r="AA17" s="84"/>
-      <c r="AB17" s="85"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A18" s="80">
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="82"/>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="77">
         <v>14</v>
       </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="84"/>
-      <c r="T18" s="84"/>
-      <c r="U18" s="84"/>
-      <c r="V18" s="84"/>
-      <c r="W18" s="84"/>
-      <c r="X18" s="84"/>
-      <c r="Y18" s="84"/>
-      <c r="Z18" s="84"/>
-      <c r="AA18" s="84"/>
-      <c r="AB18" s="85"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A19" s="80">
+      <c r="B18" s="85"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="81"/>
+      <c r="V18" s="81"/>
+      <c r="W18" s="81"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="81"/>
+      <c r="AA18" s="81"/>
+      <c r="AB18" s="82"/>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="77">
         <v>15</v>
       </c>
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="84"/>
-      <c r="T19" s="84"/>
-      <c r="U19" s="84"/>
-      <c r="V19" s="84"/>
-      <c r="W19" s="84"/>
-      <c r="X19" s="84"/>
-      <c r="Y19" s="84"/>
-      <c r="Z19" s="84"/>
-      <c r="AA19" s="84"/>
-      <c r="AB19" s="85"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A20" s="80">
+      <c r="B19" s="85"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="81"/>
+      <c r="U19" s="81"/>
+      <c r="V19" s="81"/>
+      <c r="W19" s="81"/>
+      <c r="X19" s="81"/>
+      <c r="Y19" s="81"/>
+      <c r="Z19" s="81"/>
+      <c r="AA19" s="81"/>
+      <c r="AB19" s="82"/>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="77">
         <v>16</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="84"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="84"/>
-      <c r="U20" s="84"/>
-      <c r="V20" s="84"/>
-      <c r="W20" s="84"/>
-      <c r="X20" s="84"/>
-      <c r="Y20" s="84"/>
-      <c r="Z20" s="84"/>
-      <c r="AA20" s="84"/>
-      <c r="AB20" s="85"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A21" s="80">
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="81"/>
+      <c r="V20" s="81"/>
+      <c r="W20" s="81"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="81"/>
+      <c r="Z20" s="81"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="82"/>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="77">
         <v>17</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="84"/>
-      <c r="U21" s="84"/>
-      <c r="V21" s="84"/>
-      <c r="W21" s="84"/>
-      <c r="X21" s="84"/>
-      <c r="Y21" s="84"/>
-      <c r="Z21" s="84"/>
-      <c r="AA21" s="84"/>
-      <c r="AB21" s="85"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A22" s="80">
+      <c r="B21" s="85"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="81"/>
+      <c r="T21" s="81"/>
+      <c r="U21" s="81"/>
+      <c r="V21" s="81"/>
+      <c r="W21" s="81"/>
+      <c r="X21" s="81"/>
+      <c r="Y21" s="81"/>
+      <c r="Z21" s="81"/>
+      <c r="AA21" s="81"/>
+      <c r="AB21" s="82"/>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="77">
         <v>18</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="84"/>
-      <c r="W22" s="84"/>
-      <c r="X22" s="84"/>
-      <c r="Y22" s="84"/>
-      <c r="Z22" s="84"/>
-      <c r="AA22" s="84"/>
-      <c r="AB22" s="85"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A23" s="80"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="84"/>
-      <c r="U23" s="84"/>
-      <c r="V23" s="84"/>
-      <c r="W23" s="84"/>
-      <c r="X23" s="84"/>
-      <c r="Y23" s="84"/>
-      <c r="Z23" s="84"/>
-      <c r="AA23" s="84"/>
-      <c r="AB23" s="85"/>
-    </row>
-    <row r="24" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="91"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="94"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="94"/>
-      <c r="T24" s="94"/>
-      <c r="U24" s="94"/>
-      <c r="V24" s="94"/>
-      <c r="W24" s="94"/>
-      <c r="X24" s="94"/>
-      <c r="Y24" s="94"/>
-      <c r="Z24" s="94"/>
-      <c r="AA24" s="94"/>
-      <c r="AB24" s="96"/>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B25" s="97"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="97"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="97"/>
-      <c r="S25" s="97"/>
-      <c r="T25" s="97"/>
-      <c r="U25" s="97"/>
-      <c r="V25" s="97"/>
-      <c r="W25" s="97"/>
-      <c r="X25" s="97"/>
-      <c r="Y25" s="97"/>
-      <c r="Z25" s="97"/>
-      <c r="AA25" s="97"/>
-      <c r="AB25" s="97"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
+      <c r="W22" s="81"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="81"/>
+      <c r="Z22" s="81"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="82"/>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="77"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="81"/>
+      <c r="W23" s="81"/>
+      <c r="X23" s="81"/>
+      <c r="Y23" s="81"/>
+      <c r="Z23" s="81"/>
+      <c r="AA23" s="81"/>
+      <c r="AB23" s="82"/>
+    </row>
+    <row r="24" spans="1:28" ht="19.5" thickBot="1">
+      <c r="A24" s="88"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="91"/>
+      <c r="R24" s="91"/>
+      <c r="S24" s="91"/>
+      <c r="T24" s="91"/>
+      <c r="U24" s="91"/>
+      <c r="V24" s="91"/>
+      <c r="W24" s="91"/>
+      <c r="X24" s="91"/>
+      <c r="Y24" s="91"/>
+      <c r="Z24" s="91"/>
+      <c r="AA24" s="91"/>
+      <c r="AB24" s="93"/>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
+      <c r="L25" s="94"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="94"/>
+      <c r="S25" s="94"/>
+      <c r="T25" s="94"/>
+      <c r="U25" s="94"/>
+      <c r="V25" s="94"/>
+      <c r="W25" s="94"/>
+      <c r="X25" s="94"/>
+      <c r="Y25" s="94"/>
+      <c r="Z25" s="94"/>
+      <c r="AA25" s="94"/>
+      <c r="AB25" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4265,21 +4373,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="32" width="3.59765625" style="11" customWidth="1"/>
-    <col min="33" max="16384" width="3.69921875" style="11"/>
+    <col min="1" max="32" width="3.625" style="11" customWidth="1"/>
+    <col min="33" max="16384" width="3.75" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4288,7 +4395,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4305,7 +4412,7 @@
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -4317,7 +4424,7 @@
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -4325,13 +4432,13 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="10"/>
     </row>
-    <row r="2" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" ht="19.5" thickBot="1">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -4344,7 +4451,7 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -4354,7 +4461,7 @@
         <v>3</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="98" t="s">
+      <c r="S2" s="130" t="s">
         <v>90</v>
       </c>
       <c r="T2" s="14"/>
@@ -4366,8 +4473,8 @@
         <v>4</v>
       </c>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="99" t="s">
-        <v>53</v>
+      <c r="AA2" s="131" t="s">
+        <v>117</v>
       </c>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
@@ -4375,8 +4482,8 @@
       <c r="AE2" s="14"/>
       <c r="AF2" s="19"/>
     </row>
-    <row r="3" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33" ht="19.5" thickBot="1"/>
+    <row r="4" spans="1:33">
       <c r="A4" s="20"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -4410,7 +4517,7 @@
       <c r="AE4" s="21"/>
       <c r="AF4" s="22"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33">
       <c r="A5" s="23"/>
       <c r="B5" s="24" t="s">
         <v>17</v>
@@ -4446,7 +4553,7 @@
       <c r="AE5" s="24"/>
       <c r="AF5" s="25"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33">
       <c r="A6" s="23"/>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -4480,7 +4587,7 @@
       <c r="AE6" s="24"/>
       <c r="AF6" s="25"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33">
       <c r="A7" s="23"/>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
@@ -4514,7 +4621,7 @@
       <c r="AE7" s="24"/>
       <c r="AF7" s="25"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:33">
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
@@ -4548,7 +4655,7 @@
       <c r="AE8" s="24"/>
       <c r="AF8" s="25"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33">
       <c r="A9" s="23"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -4582,7 +4689,7 @@
       <c r="AE9" s="24"/>
       <c r="AF9" s="25"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33">
       <c r="A10" s="23"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -4616,7 +4723,7 @@
       <c r="AE10" s="24"/>
       <c r="AF10" s="25"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33">
       <c r="A11" s="23"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
@@ -4650,7 +4757,7 @@
       <c r="AE11" s="24"/>
       <c r="AF11" s="25"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33">
       <c r="A12" s="23"/>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
@@ -4684,7 +4791,7 @@
       <c r="AE12" s="24"/>
       <c r="AF12" s="25"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:33">
       <c r="A13" s="23"/>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
@@ -4718,7 +4825,7 @@
       <c r="AE13" s="24"/>
       <c r="AF13" s="25"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:33">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -4752,55 +4859,55 @@
       <c r="AE14" s="24"/>
       <c r="AF14" s="25"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:33">
       <c r="A15" s="23"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="AG15" s="23"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:33">
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
       <c r="AG16" s="23"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:33">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
       <c r="AG17" s="23"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:33">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
       <c r="AG18" s="23"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:33">
       <c r="A19" s="23"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
       <c r="AG19" s="23"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:33">
       <c r="A20" s="23"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
       <c r="AG20" s="23"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:33">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
       <c r="AG21" s="23"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:33">
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
       <c r="AG22" s="23"/>
     </row>
-    <row r="23" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:33" ht="19.5" thickBot="1">
       <c r="A23" s="28"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -4844,29 +4951,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="19" width="3.59765625" style="43"/>
+    <col min="1" max="1" width="3.75" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="19" width="3.625" style="43"/>
     <col min="20" max="22" width="6" style="43" customWidth="1"/>
-    <col min="23" max="26" width="3.59765625" style="43"/>
+    <col min="23" max="26" width="3.625" style="43"/>
     <col min="27" max="27" width="4" style="43" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.59765625" style="43"/>
-    <col min="29" max="29" width="3.69921875" style="43" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="3.59765625" style="43"/>
+    <col min="28" max="28" width="3.625" style="43"/>
+    <col min="29" max="29" width="3.75" style="43" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="3.625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4875,7 +4979,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4892,7 +4996,7 @@
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -4904,7 +5008,7 @@
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="9" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -4912,13 +5016,13 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="10"/>
     </row>
-    <row r="2" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" ht="15.75" customHeight="1" thickBot="1">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -4931,7 +5035,7 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -4941,96 +5045,96 @@
         <v>3</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="98" t="s">
+      <c r="S2" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="17" t="s">
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="99" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB2" s="14"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" s="144" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB2" s="140"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
       <c r="AE2" s="14"/>
       <c r="AF2" s="19"/>
     </row>
-    <row r="3" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="67" t="s">
+    <row r="3" spans="1:32" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="4" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="65" t="s">
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="65" t="s">
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="70"/>
-      <c r="L4" s="65" t="s">
+      <c r="K4" s="67"/>
+      <c r="L4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="65" t="s">
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="65" t="s">
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="65" t="s">
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="70"/>
-      <c r="AA4" s="65" t="s">
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67"/>
+      <c r="Z4" s="67"/>
+      <c r="AA4" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="70" t="s">
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="AD4" s="70"/>
-      <c r="AE4" s="65" t="s">
+      <c r="AD4" s="67"/>
+      <c r="AE4" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="AF4" s="71"/>
-    </row>
-    <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AF4" s="68"/>
+    </row>
+    <row r="5" spans="1:32" ht="15.75" customHeight="1">
       <c r="A5" s="34">
         <v>1</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="36"/>
       <c r="D5" s="36"/>
       <c r="E5" s="36"/>
       <c r="F5" s="37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
@@ -5046,7 +5150,7 @@
       <c r="N5" s="41"/>
       <c r="O5" s="38"/>
       <c r="P5" s="40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="38"/>
       <c r="R5" s="38"/>
@@ -5075,18 +5179,18 @@
       </c>
       <c r="AF5" s="42"/>
     </row>
-    <row r="6" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" ht="15.75" customHeight="1">
       <c r="A6" s="34">
         <v>2</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
@@ -5096,131 +5200,131 @@
       </c>
       <c r="K6" s="38"/>
       <c r="L6" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M6" s="41"/>
       <c r="N6" s="41"/>
       <c r="O6" s="38"/>
       <c r="P6" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q6" s="38"/>
       <c r="R6" s="38"/>
       <c r="S6" s="38"/>
       <c r="T6" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U6" s="38"/>
       <c r="V6" s="38"/>
       <c r="W6" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X6" s="38"/>
       <c r="Y6" s="38"/>
       <c r="Z6" s="38"/>
       <c r="AA6" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB6" s="39"/>
       <c r="AC6" s="38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD6" s="38"/>
       <c r="AE6" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AF6" s="42"/>
     </row>
-    <row r="7" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" ht="15.75" customHeight="1">
       <c r="A7" s="34">
         <v>3</v>
       </c>
-      <c r="B7" s="114" t="s">
-        <v>84</v>
+      <c r="B7" s="35" t="s">
+        <v>94</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
-      <c r="F7" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="46"/>
+      <c r="F7" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39"/>
       <c r="J7" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="41"/>
+        <v>97</v>
+      </c>
+      <c r="K7" s="38"/>
       <c r="L7" s="37" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="M7" s="41"/>
       <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
       <c r="T7" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
+        <v>96</v>
+      </c>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
       <c r="W7" s="40" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="X7" s="38"/>
       <c r="Y7" s="38"/>
       <c r="Z7" s="38"/>
       <c r="AA7" s="40" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="AB7" s="39"/>
       <c r="AC7" s="38" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="AD7" s="38"/>
       <c r="AE7" s="40" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="AF7" s="42"/>
     </row>
-    <row r="8" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" ht="15.75" customHeight="1">
       <c r="A8" s="34">
         <v>4</v>
       </c>
-      <c r="B8" s="114" t="s">
-        <v>85</v>
+      <c r="B8" s="35" t="s">
+        <v>114</v>
       </c>
       <c r="C8" s="45"/>
       <c r="D8" s="45"/>
       <c r="E8" s="45"/>
       <c r="F8" s="40" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G8" s="41"/>
       <c r="H8" s="41"/>
       <c r="I8" s="46"/>
       <c r="J8" s="40" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="K8" s="41"/>
       <c r="L8" s="37" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M8" s="41"/>
       <c r="N8" s="41"/>
       <c r="O8" s="41"/>
       <c r="P8" s="37" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="41"/>
       <c r="R8" s="41"/>
       <c r="S8" s="41"/>
       <c r="T8" s="40" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="U8" s="41"/>
       <c r="V8" s="41"/>
@@ -5243,40 +5347,40 @@
       </c>
       <c r="AF8" s="42"/>
     </row>
-    <row r="9" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" ht="15.75" customHeight="1">
       <c r="A9" s="34">
         <v>5</v>
       </c>
-      <c r="B9" s="114" t="s">
-        <v>81</v>
+      <c r="B9" s="35" t="s">
+        <v>113</v>
       </c>
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
       <c r="E9" s="45"/>
       <c r="F9" s="40" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G9" s="41"/>
       <c r="H9" s="41"/>
       <c r="I9" s="46"/>
       <c r="J9" s="40" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="K9" s="41"/>
       <c r="L9" s="37" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="M9" s="41"/>
       <c r="N9" s="41"/>
       <c r="O9" s="41"/>
       <c r="P9" s="37" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="41"/>
       <c r="R9" s="41"/>
       <c r="S9" s="41"/>
       <c r="T9" s="40" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="U9" s="41"/>
       <c r="V9" s="41"/>
@@ -5299,40 +5403,40 @@
       </c>
       <c r="AF9" s="42"/>
     </row>
-    <row r="10" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" ht="15.75" customHeight="1">
       <c r="A10" s="34">
         <v>6</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C10" s="45"/>
       <c r="D10" s="45"/>
       <c r="E10" s="45"/>
       <c r="F10" s="40" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G10" s="41"/>
       <c r="H10" s="41"/>
       <c r="I10" s="46"/>
       <c r="J10" s="40" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="K10" s="41"/>
       <c r="L10" s="37" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
       <c r="O10" s="41"/>
       <c r="P10" s="37" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="41"/>
       <c r="R10" s="41"/>
       <c r="S10" s="41"/>
       <c r="T10" s="40" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="U10" s="41"/>
       <c r="V10" s="41"/>
@@ -5355,40 +5459,40 @@
       </c>
       <c r="AF10" s="42"/>
     </row>
-    <row r="11" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" ht="15.75" customHeight="1">
       <c r="A11" s="34">
         <v>7</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="C11" s="45"/>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
       <c r="F11" s="40" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G11" s="41"/>
       <c r="H11" s="41"/>
       <c r="I11" s="46"/>
       <c r="J11" s="40" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="K11" s="41"/>
       <c r="L11" s="37" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="M11" s="41"/>
       <c r="N11" s="41"/>
       <c r="O11" s="41"/>
       <c r="P11" s="37" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="Q11" s="41"/>
       <c r="R11" s="41"/>
       <c r="S11" s="41"/>
       <c r="T11" s="40" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="U11" s="41"/>
       <c r="V11" s="41"/>
@@ -5411,40 +5515,40 @@
       </c>
       <c r="AF11" s="42"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" ht="15.75" customHeight="1">
       <c r="A12" s="34">
         <v>8</v>
       </c>
-      <c r="B12" s="48" t="s">
-        <v>56</v>
+      <c r="B12" s="35" t="s">
+        <v>103</v>
       </c>
       <c r="C12" s="45"/>
       <c r="D12" s="45"/>
       <c r="E12" s="45"/>
-      <c r="F12" s="37" t="s">
-        <v>72</v>
+      <c r="F12" s="40" t="s">
+        <v>66</v>
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
       <c r="I12" s="46"/>
       <c r="J12" s="40" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="K12" s="41"/>
       <c r="L12" s="37" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M12" s="41"/>
       <c r="N12" s="41"/>
       <c r="O12" s="41"/>
       <c r="P12" s="37" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="Q12" s="41"/>
       <c r="R12" s="41"/>
       <c r="S12" s="41"/>
       <c r="T12" s="40" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="U12" s="41"/>
       <c r="V12" s="41"/>
@@ -5467,40 +5571,40 @@
       </c>
       <c r="AF12" s="42"/>
     </row>
-    <row r="13" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" ht="15.75" customHeight="1">
       <c r="A13" s="34">
         <v>9</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
-      <c r="F13" s="40" t="s">
-        <v>75</v>
+      <c r="F13" s="37" t="s">
+        <v>67</v>
       </c>
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
       <c r="I13" s="46"/>
       <c r="J13" s="40" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="K13" s="41"/>
       <c r="L13" s="37" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="M13" s="41"/>
       <c r="N13" s="41"/>
       <c r="O13" s="41"/>
-      <c r="P13" s="35" t="s">
-        <v>74</v>
+      <c r="P13" s="37" t="s">
+        <v>26</v>
       </c>
       <c r="Q13" s="41"/>
       <c r="R13" s="41"/>
       <c r="S13" s="41"/>
       <c r="T13" s="40" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="U13" s="41"/>
       <c r="V13" s="41"/>
@@ -5523,40 +5627,40 @@
       </c>
       <c r="AF13" s="42"/>
     </row>
-    <row r="14" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" ht="15.75" customHeight="1">
       <c r="A14" s="34">
         <v>10</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="C14" s="45"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45"/>
       <c r="F14" s="40" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
       <c r="I14" s="46"/>
       <c r="J14" s="40" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="K14" s="41"/>
       <c r="L14" s="37" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M14" s="41"/>
       <c r="N14" s="41"/>
       <c r="O14" s="41"/>
-      <c r="P14" s="37" t="s">
-        <v>26</v>
+      <c r="P14" s="35" t="s">
+        <v>68</v>
       </c>
       <c r="Q14" s="41"/>
       <c r="R14" s="41"/>
       <c r="S14" s="41"/>
       <c r="T14" s="40" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="U14" s="41"/>
       <c r="V14" s="41"/>
@@ -5579,40 +5683,40 @@
       </c>
       <c r="AF14" s="42"/>
     </row>
-    <row r="15" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" ht="15.75" customHeight="1">
       <c r="A15" s="34">
         <v>11</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45"/>
       <c r="F15" s="40" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
       <c r="I15" s="46"/>
       <c r="J15" s="40" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="K15" s="41"/>
       <c r="L15" s="37" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="M15" s="41"/>
       <c r="N15" s="41"/>
       <c r="O15" s="41"/>
       <c r="P15" s="37" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="41"/>
       <c r="R15" s="41"/>
       <c r="S15" s="41"/>
       <c r="T15" s="40" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="U15" s="41"/>
       <c r="V15" s="41"/>
@@ -5635,40 +5739,40 @@
       </c>
       <c r="AF15" s="42"/>
     </row>
-    <row r="16" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" ht="15.75" customHeight="1">
       <c r="A16" s="34">
         <v>12</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="C16" s="45"/>
       <c r="D16" s="45"/>
       <c r="E16" s="45"/>
       <c r="F16" s="40" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
       <c r="I16" s="46"/>
       <c r="J16" s="40" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="K16" s="41"/>
       <c r="L16" s="37" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="M16" s="41"/>
       <c r="N16" s="41"/>
       <c r="O16" s="41"/>
       <c r="P16" s="37" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="Q16" s="41"/>
       <c r="R16" s="41"/>
       <c r="S16" s="41"/>
       <c r="T16" s="40" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="U16" s="41"/>
       <c r="V16" s="41"/>
@@ -5691,45 +5795,45 @@
       </c>
       <c r="AF16" s="42"/>
     </row>
-    <row r="17" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" ht="15.75" customHeight="1">
       <c r="A17" s="34">
         <v>13</v>
       </c>
-      <c r="B17" s="48" t="s">
-        <v>58</v>
+      <c r="B17" s="35" t="s">
+        <v>108</v>
       </c>
       <c r="C17" s="45"/>
       <c r="D17" s="45"/>
       <c r="E17" s="45"/>
-      <c r="F17" s="37" t="s">
-        <v>60</v>
+      <c r="F17" s="40" t="s">
+        <v>72</v>
       </c>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
       <c r="I17" s="46"/>
       <c r="J17" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K17" s="41"/>
       <c r="L17" s="37" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M17" s="41"/>
       <c r="N17" s="41"/>
       <c r="O17" s="41"/>
       <c r="P17" s="37" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="Q17" s="41"/>
       <c r="R17" s="41"/>
       <c r="S17" s="41"/>
       <c r="T17" s="40" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="U17" s="41"/>
       <c r="V17" s="41"/>
       <c r="W17" s="40" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="X17" s="38"/>
       <c r="Y17" s="38"/>
@@ -5747,34 +5851,34 @@
       </c>
       <c r="AF17" s="42"/>
     </row>
-    <row r="18" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" ht="15.75" customHeight="1">
       <c r="A18" s="34">
         <v>14</v>
       </c>
-      <c r="B18" s="48" t="s">
-        <v>59</v>
+      <c r="B18" s="35" t="s">
+        <v>109</v>
       </c>
       <c r="C18" s="45"/>
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
       <c r="F18" s="37" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
       <c r="I18" s="46"/>
       <c r="J18" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18" s="41"/>
       <c r="L18" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
       <c r="O18" s="41"/>
       <c r="P18" s="37" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q18" s="41"/>
       <c r="R18" s="41"/>
@@ -5785,7 +5889,7 @@
       <c r="U18" s="41"/>
       <c r="V18" s="41"/>
       <c r="W18" s="40" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="X18" s="38"/>
       <c r="Y18" s="38"/>
@@ -5803,153 +5907,175 @@
       </c>
       <c r="AF18" s="42"/>
     </row>
-    <row r="19" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="115">
+    <row r="19" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A19" s="132">
         <v>15</v>
       </c>
-      <c r="B19" s="116" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="118" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="121" t="s">
+      <c r="B19" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="134" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="137" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="135"/>
+      <c r="L19" s="134" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" s="135"/>
+      <c r="N19" s="135"/>
+      <c r="O19" s="135"/>
+      <c r="P19" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q19" s="135"/>
+      <c r="R19" s="135"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="137" t="s">
+        <v>26</v>
+      </c>
+      <c r="U19" s="135"/>
+      <c r="V19" s="135"/>
+      <c r="W19" s="137" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="119"/>
-      <c r="L19" s="118" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="118" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="119"/>
-      <c r="T19" s="121" t="s">
+      <c r="X19" s="138"/>
+      <c r="Y19" s="138"/>
+      <c r="Z19" s="138"/>
+      <c r="AA19" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="U19" s="119"/>
-      <c r="V19" s="119"/>
-      <c r="W19" s="121" t="s">
-        <v>97</v>
-      </c>
-      <c r="X19" s="122"/>
-      <c r="Y19" s="122"/>
-      <c r="Z19" s="122"/>
-      <c r="AA19" s="121" t="s">
+      <c r="AB19" s="139"/>
+      <c r="AC19" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="AB19" s="123"/>
-      <c r="AC19" s="122" t="s">
+      <c r="AD19" s="138"/>
+      <c r="AE19" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="AD19" s="122"/>
-      <c r="AE19" s="121" t="s">
+      <c r="AF19" s="111"/>
+    </row>
+    <row r="20" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A20" s="132">
+        <v>16</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="135"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="137" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="135"/>
+      <c r="L20" s="134" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="135"/>
+      <c r="N20" s="135"/>
+      <c r="O20" s="135"/>
+      <c r="P20" s="134" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q20" s="135"/>
+      <c r="R20" s="135"/>
+      <c r="S20" s="135"/>
+      <c r="T20" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="AF19" s="124"/>
-    </row>
-    <row r="20" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="34">
-        <v>16</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="40" t="s">
+      <c r="U20" s="135"/>
+      <c r="V20" s="135"/>
+      <c r="W20" s="137" t="s">
+        <v>84</v>
+      </c>
+      <c r="X20" s="138"/>
+      <c r="Y20" s="138"/>
+      <c r="Z20" s="138"/>
+      <c r="AA20" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="K20" s="41"/>
-      <c r="L20" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="37" t="s">
+      <c r="AB20" s="139"/>
+      <c r="AC20" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="37" t="s">
+      <c r="AD20" s="138"/>
+      <c r="AE20" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD20" s="41"/>
-      <c r="AE20" s="37" t="s">
-        <v>26</v>
-      </c>
       <c r="AF20" s="47"/>
     </row>
-    <row r="21" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="44"/>
-      <c r="B21" s="48"/>
+    <row r="21" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A21" s="34">
+        <v>17</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>112</v>
+      </c>
       <c r="C21" s="45"/>
       <c r="D21" s="45"/>
       <c r="E21" s="45"/>
-      <c r="F21" s="37"/>
+      <c r="F21" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
       <c r="I21" s="46"/>
-      <c r="J21" s="40"/>
+      <c r="J21" s="40" t="s">
+        <v>26</v>
+      </c>
       <c r="K21" s="41"/>
-      <c r="L21" s="40"/>
+      <c r="L21" s="37" t="s">
+        <v>28</v>
+      </c>
       <c r="M21" s="41"/>
       <c r="N21" s="41"/>
       <c r="O21" s="41"/>
-      <c r="P21" s="37"/>
+      <c r="P21" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="Q21" s="41"/>
       <c r="R21" s="41"/>
       <c r="S21" s="41"/>
-      <c r="T21" s="37"/>
+      <c r="T21" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="U21" s="41"/>
       <c r="V21" s="41"/>
-      <c r="W21" s="37"/>
+      <c r="W21" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="X21" s="41"/>
       <c r="Y21" s="41"/>
       <c r="Z21" s="41"/>
-      <c r="AA21" s="37"/>
+      <c r="AA21" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="AB21" s="46"/>
-      <c r="AC21" s="41"/>
+      <c r="AC21" s="41" t="s">
+        <v>26</v>
+      </c>
       <c r="AD21" s="41"/>
-      <c r="AE21" s="40"/>
+      <c r="AE21" s="37" t="s">
+        <v>26</v>
+      </c>
       <c r="AF21" s="49"/>
     </row>
-    <row r="22" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:32" ht="15.75" customHeight="1" thickBot="1">
       <c r="A22" s="44"/>
       <c r="B22" s="48"/>
       <c r="C22" s="45"/>
@@ -5983,39 +6109,39 @@
       <c r="AE22" s="37"/>
       <c r="AF22" s="49"/>
     </row>
-    <row r="23" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="72"/>
-      <c r="X23" s="72"/>
-      <c r="Y23" s="72"/>
-      <c r="Z23" s="72"/>
-      <c r="AA23" s="72"/>
-      <c r="AB23" s="72"/>
-      <c r="AC23" s="72"/>
-      <c r="AD23" s="72"/>
-      <c r="AE23" s="72"/>
-      <c r="AF23" s="72"/>
+    <row r="23" spans="1:32" ht="15.75" customHeight="1">
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="69"/>
+      <c r="T23" s="69"/>
+      <c r="U23" s="69"/>
+      <c r="V23" s="69"/>
+      <c r="W23" s="69"/>
+      <c r="X23" s="69"/>
+      <c r="Y23" s="69"/>
+      <c r="Z23" s="69"/>
+      <c r="AA23" s="69"/>
+      <c r="AB23" s="69"/>
+      <c r="AC23" s="69"/>
+      <c r="AD23" s="69"/>
+      <c r="AE23" s="69"/>
+      <c r="AF23" s="69"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6025,21 +6151,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="32" width="3.59765625" style="11" customWidth="1"/>
-    <col min="33" max="16384" width="3.69921875" style="11"/>
+    <col min="1" max="32" width="3.625" style="11" customWidth="1"/>
+    <col min="33" max="16384" width="3.75" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6048,7 +6173,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -6065,7 +6190,7 @@
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -6077,7 +6202,7 @@
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -6085,13 +6210,13 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="10"/>
     </row>
-    <row r="2" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" ht="19.5" thickBot="1">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -6104,7 +6229,7 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -6114,29 +6239,29 @@
         <v>3</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="98" t="s">
-        <v>103</v>
-      </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="17" t="s">
+      <c r="S2" s="130" t="s">
+        <v>90</v>
+      </c>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="99" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB2" s="14"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" s="144" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="140"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
       <c r="AE2" s="14"/>
       <c r="AF2" s="19"/>
     </row>
-    <row r="3" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" ht="19.5" thickBot="1"/>
+    <row r="4" spans="1:32">
       <c r="A4" s="29" t="s">
         <v>5</v>
       </c>
@@ -6180,86 +6305,86 @@
       <c r="AE4" s="32"/>
       <c r="AF4" s="33"/>
     </row>
-    <row r="5" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="100">
+    <row r="5" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A5" s="97">
         <v>1</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="103" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="106" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="103" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="102"/>
-      <c r="T5" s="102"/>
-      <c r="U5" s="102"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="102"/>
-      <c r="X5" s="102"/>
-      <c r="Y5" s="102"/>
-      <c r="Z5" s="102"/>
-      <c r="AA5" s="102"/>
-      <c r="AB5" s="102"/>
-      <c r="AC5" s="102"/>
-      <c r="AD5" s="102"/>
-      <c r="AE5" s="102"/>
-      <c r="AF5" s="109"/>
-    </row>
-    <row r="6" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="44">
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="99"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
+      <c r="X5" s="99"/>
+      <c r="Y5" s="99"/>
+      <c r="Z5" s="99"/>
+      <c r="AA5" s="99"/>
+      <c r="AB5" s="99"/>
+      <c r="AC5" s="99"/>
+      <c r="AD5" s="99"/>
+      <c r="AE5" s="99"/>
+      <c r="AF5" s="106"/>
+    </row>
+    <row r="6" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A6" s="145">
         <v>2</v>
       </c>
-      <c r="B6" s="101" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="106" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
+      <c r="B6" s="146" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="134" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="148" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="149"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="134" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" s="135"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="135"/>
+      <c r="T6" s="135"/>
+      <c r="U6" s="135"/>
+      <c r="V6" s="135"/>
+      <c r="W6" s="135"/>
+      <c r="X6" s="135"/>
+      <c r="Y6" s="135"/>
       <c r="Z6" s="41"/>
       <c r="AA6" s="41"/>
       <c r="AB6" s="41"/>
@@ -6268,42 +6393,42 @@
       <c r="AE6" s="41"/>
       <c r="AF6" s="47"/>
     </row>
-    <row r="7" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="125">
+    <row r="7" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A7" s="151">
         <v>3</v>
       </c>
-      <c r="B7" s="126" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="118" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="130"/>
-      <c r="P7" s="118" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
-      <c r="S7" s="119"/>
-      <c r="T7" s="119"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
+      <c r="B7" s="152" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="134" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="148" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" s="149"/>
+      <c r="M7" s="149"/>
+      <c r="N7" s="149"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="134" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7" s="135"/>
+      <c r="R7" s="135"/>
+      <c r="S7" s="135"/>
+      <c r="T7" s="135"/>
+      <c r="U7" s="135"/>
+      <c r="V7" s="135"/>
+      <c r="W7" s="135"/>
+      <c r="X7" s="135"/>
+      <c r="Y7" s="135"/>
       <c r="Z7" s="41"/>
       <c r="AA7" s="41"/>
       <c r="AB7" s="41"/>
@@ -6312,32 +6437,32 @@
       <c r="AE7" s="41"/>
       <c r="AF7" s="47"/>
     </row>
-    <row r="8" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="34"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
+    <row r="8" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="153"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="156"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="138"/>
+      <c r="O8" s="138"/>
+      <c r="P8" s="134"/>
+      <c r="Q8" s="138"/>
+      <c r="R8" s="138"/>
+      <c r="S8" s="138"/>
+      <c r="T8" s="138"/>
+      <c r="U8" s="138"/>
+      <c r="V8" s="138"/>
+      <c r="W8" s="138"/>
+      <c r="X8" s="138"/>
+      <c r="Y8" s="138"/>
       <c r="Z8" s="38"/>
       <c r="AA8" s="38"/>
       <c r="AB8" s="38"/>
@@ -6346,32 +6471,32 @@
       <c r="AE8" s="38"/>
       <c r="AF8" s="42"/>
     </row>
-    <row r="9" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="34"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
+    <row r="9" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="153"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="134"/>
+      <c r="Q9" s="138"/>
+      <c r="R9" s="138"/>
+      <c r="S9" s="138"/>
+      <c r="T9" s="138"/>
+      <c r="U9" s="138"/>
+      <c r="V9" s="138"/>
+      <c r="W9" s="138"/>
+      <c r="X9" s="138"/>
+      <c r="Y9" s="138"/>
       <c r="Z9" s="38"/>
       <c r="AA9" s="38"/>
       <c r="AB9" s="38"/>
@@ -6380,32 +6505,32 @@
       <c r="AE9" s="38"/>
       <c r="AF9" s="42"/>
     </row>
-    <row r="10" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="34"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
+    <row r="10" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A10" s="153"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="156"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="134"/>
+      <c r="Q10" s="138"/>
+      <c r="R10" s="138"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="138"/>
+      <c r="U10" s="138"/>
+      <c r="V10" s="138"/>
+      <c r="W10" s="138"/>
+      <c r="X10" s="138"/>
+      <c r="Y10" s="138"/>
       <c r="Z10" s="38"/>
       <c r="AA10" s="38"/>
       <c r="AB10" s="38"/>
@@ -6414,9 +6539,9 @@
       <c r="AE10" s="38"/>
       <c r="AF10" s="47"/>
     </row>
-    <row r="11" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="34"/>
-      <c r="B11" s="55"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
@@ -6424,7 +6549,7 @@
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
-      <c r="J11" s="56"/>
+      <c r="J11" s="53"/>
       <c r="K11" s="40"/>
       <c r="L11" s="38"/>
       <c r="M11" s="38"/>
@@ -6448,9 +6573,9 @@
       <c r="AE11" s="38"/>
       <c r="AF11" s="47"/>
     </row>
-    <row r="12" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="34"/>
-      <c r="B12" s="55"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="41"/>
       <c r="D12" s="41"/>
       <c r="E12" s="41"/>
@@ -6482,9 +6607,9 @@
       <c r="AE12" s="41"/>
       <c r="AF12" s="47"/>
     </row>
-    <row r="13" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="34"/>
-      <c r="B13" s="55"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
       <c r="E13" s="38"/>
@@ -6492,7 +6617,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
-      <c r="J13" s="56"/>
+      <c r="J13" s="53"/>
       <c r="K13" s="40"/>
       <c r="L13" s="38"/>
       <c r="M13" s="38"/>
@@ -6516,9 +6641,9 @@
       <c r="AE13" s="38"/>
       <c r="AF13" s="47"/>
     </row>
-    <row r="14" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="34"/>
-      <c r="B14" s="55"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
@@ -6550,9 +6675,9 @@
       <c r="AE14" s="41"/>
       <c r="AF14" s="47"/>
     </row>
-    <row r="15" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="34"/>
-      <c r="B15" s="55"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="41"/>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
@@ -6584,9 +6709,9 @@
       <c r="AE15" s="41"/>
       <c r="AF15" s="47"/>
     </row>
-    <row r="16" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="34"/>
-      <c r="B16" s="55"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
@@ -6618,7 +6743,7 @@
       <c r="AE16" s="41"/>
       <c r="AF16" s="47"/>
     </row>
-    <row r="17" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="34"/>
       <c r="B17" s="40"/>
       <c r="C17" s="38"/>
@@ -6628,7 +6753,7 @@
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
-      <c r="J17" s="56"/>
+      <c r="J17" s="53"/>
       <c r="K17" s="40"/>
       <c r="L17" s="38"/>
       <c r="M17" s="38"/>
@@ -6652,7 +6777,7 @@
       <c r="AE17" s="38"/>
       <c r="AF17" s="42"/>
     </row>
-    <row r="18" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="34"/>
       <c r="B18" s="40"/>
       <c r="C18" s="38"/>
@@ -6662,7 +6787,7 @@
       <c r="G18" s="36"/>
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
-      <c r="J18" s="56"/>
+      <c r="J18" s="53"/>
       <c r="K18" s="40"/>
       <c r="L18" s="38"/>
       <c r="M18" s="38"/>
@@ -6686,7 +6811,7 @@
       <c r="AE18" s="38"/>
       <c r="AF18" s="42"/>
     </row>
-    <row r="19" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="44"/>
       <c r="B19" s="37"/>
       <c r="C19" s="41"/>
@@ -6720,7 +6845,7 @@
       <c r="AE19" s="41"/>
       <c r="AF19" s="47"/>
     </row>
-    <row r="20" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="44"/>
       <c r="B20" s="37"/>
       <c r="C20" s="41"/>
@@ -6754,7 +6879,7 @@
       <c r="AE20" s="41"/>
       <c r="AF20" s="47"/>
     </row>
-    <row r="21" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="44"/>
       <c r="B21" s="37"/>
       <c r="C21" s="41"/>
@@ -6788,7 +6913,7 @@
       <c r="AE21" s="41"/>
       <c r="AF21" s="47"/>
     </row>
-    <row r="22" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="44"/>
       <c r="B22" s="37"/>
       <c r="C22" s="41"/>
@@ -6822,7 +6947,7 @@
       <c r="AE22" s="41"/>
       <c r="AF22" s="47"/>
     </row>
-    <row r="23" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="44"/>
       <c r="B23" s="37"/>
       <c r="C23" s="41"/>
@@ -6856,7 +6981,7 @@
       <c r="AE23" s="41"/>
       <c r="AF23" s="47"/>
     </row>
-    <row r="24" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1">
       <c r="A24" s="44"/>
       <c r="B24" s="37"/>
       <c r="C24" s="41"/>
@@ -6890,72 +7015,72 @@
       <c r="AE24" s="41"/>
       <c r="AF24" s="47"/>
     </row>
-    <row r="25" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="57"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="63"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="64"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="64"/>
-      <c r="T26" s="64"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="64"/>
-      <c r="W26" s="64"/>
-      <c r="X26" s="64"/>
-      <c r="Y26" s="64"/>
-      <c r="Z26" s="64"/>
-      <c r="AA26" s="64"/>
-      <c r="AB26" s="64"/>
-      <c r="AC26" s="64"/>
-      <c r="AD26" s="64"/>
-      <c r="AE26" s="64"/>
-      <c r="AF26" s="64"/>
+    <row r="25" spans="1:32" s="43" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A25" s="54"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="56"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="56"/>
+      <c r="AF25" s="60"/>
+    </row>
+    <row r="26" spans="1:32">
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="61"/>
+      <c r="V26" s="61"/>
+      <c r="W26" s="61"/>
+      <c r="X26" s="61"/>
+      <c r="Y26" s="61"/>
+      <c r="Z26" s="61"/>
+      <c r="AA26" s="61"/>
+      <c r="AB26" s="61"/>
+      <c r="AC26" s="61"/>
+      <c r="AD26" s="61"/>
+      <c r="AE26" s="61"/>
+      <c r="AF26" s="61"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6965,18 +7090,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="32" width="3.59765625" style="11" customWidth="1"/>
-    <col min="33" max="16384" width="3.69921875" style="11"/>
+    <col min="1" max="32" width="3.625" style="11" customWidth="1"/>
+    <col min="33" max="16384" width="3.75" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6985,7 +7110,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -7002,7 +7127,7 @@
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -7014,7 +7139,7 @@
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -7022,13 +7147,13 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="10"/>
     </row>
-    <row r="2" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" ht="19.5" thickBot="1">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -7041,7 +7166,7 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -7051,7 +7176,7 @@
         <v>3</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="98"/>
+      <c r="S2" s="95"/>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
@@ -7061,15 +7186,15 @@
         <v>4</v>
       </c>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="99"/>
+      <c r="AA2" s="96"/>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
       <c r="AE2" s="14"/>
       <c r="AF2" s="19"/>
     </row>
-    <row r="3" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" ht="19.5" thickBot="1"/>
+    <row r="4" spans="1:32">
       <c r="A4" s="29" t="s">
         <v>5</v>
       </c>
@@ -7113,7 +7238,7 @@
       <c r="AE4" s="32"/>
       <c r="AF4" s="33"/>
     </row>
-    <row r="5" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A5" s="34"/>
       <c r="B5" s="40"/>
       <c r="C5" s="38"/>
@@ -7123,7 +7248,7 @@
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
-      <c r="J5" s="56"/>
+      <c r="J5" s="53"/>
       <c r="K5" s="37"/>
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
@@ -7147,7 +7272,7 @@
       <c r="AE5" s="38"/>
       <c r="AF5" s="42"/>
     </row>
-    <row r="6" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A6" s="34"/>
       <c r="B6" s="40"/>
       <c r="C6" s="38"/>
@@ -7157,7 +7282,7 @@
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
-      <c r="J6" s="56"/>
+      <c r="J6" s="53"/>
       <c r="K6" s="37"/>
       <c r="L6" s="38"/>
       <c r="M6" s="38"/>
@@ -7181,7 +7306,7 @@
       <c r="AE6" s="38"/>
       <c r="AF6" s="42"/>
     </row>
-    <row r="7" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A7" s="34"/>
       <c r="B7" s="40"/>
       <c r="C7" s="38"/>
@@ -7191,7 +7316,7 @@
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
-      <c r="J7" s="56"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="37"/>
       <c r="L7" s="38"/>
       <c r="M7" s="38"/>
@@ -7215,7 +7340,7 @@
       <c r="AE7" s="38"/>
       <c r="AF7" s="42"/>
     </row>
-    <row r="8" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A8" s="34"/>
       <c r="B8" s="40"/>
       <c r="C8" s="38"/>
@@ -7225,7 +7350,7 @@
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
-      <c r="J8" s="56"/>
+      <c r="J8" s="53"/>
       <c r="K8" s="40"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
@@ -7249,7 +7374,7 @@
       <c r="AE8" s="38"/>
       <c r="AF8" s="42"/>
     </row>
-    <row r="9" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A9" s="44"/>
       <c r="B9" s="37"/>
       <c r="C9" s="41"/>
@@ -7283,7 +7408,7 @@
       <c r="AE9" s="41"/>
       <c r="AF9" s="47"/>
     </row>
-    <row r="10" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A10" s="44"/>
       <c r="B10" s="37"/>
       <c r="C10" s="41"/>
@@ -7317,7 +7442,7 @@
       <c r="AE10" s="41"/>
       <c r="AF10" s="47"/>
     </row>
-    <row r="11" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A11" s="44"/>
       <c r="B11" s="37"/>
       <c r="C11" s="41"/>
@@ -7351,7 +7476,7 @@
       <c r="AE11" s="41"/>
       <c r="AF11" s="47"/>
     </row>
-    <row r="12" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A12" s="44"/>
       <c r="B12" s="37"/>
       <c r="C12" s="41"/>
@@ -7385,7 +7510,7 @@
       <c r="AE12" s="41"/>
       <c r="AF12" s="47"/>
     </row>
-    <row r="13" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A13" s="44"/>
       <c r="B13" s="37"/>
       <c r="C13" s="41"/>
@@ -7419,7 +7544,7 @@
       <c r="AE13" s="41"/>
       <c r="AF13" s="47"/>
     </row>
-    <row r="14" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A14" s="44"/>
       <c r="B14" s="37"/>
       <c r="C14" s="41"/>
@@ -7453,7 +7578,7 @@
       <c r="AE14" s="41"/>
       <c r="AF14" s="47"/>
     </row>
-    <row r="15" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A15" s="44"/>
       <c r="B15" s="37"/>
       <c r="C15" s="41"/>
@@ -7487,7 +7612,7 @@
       <c r="AE15" s="41"/>
       <c r="AF15" s="47"/>
     </row>
-    <row r="16" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A16" s="44"/>
       <c r="B16" s="37"/>
       <c r="C16" s="41"/>
@@ -7521,7 +7646,7 @@
       <c r="AE16" s="41"/>
       <c r="AF16" s="47"/>
     </row>
-    <row r="17" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A17" s="44"/>
       <c r="B17" s="37"/>
       <c r="C17" s="41"/>
@@ -7555,7 +7680,7 @@
       <c r="AE17" s="41"/>
       <c r="AF17" s="47"/>
     </row>
-    <row r="18" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A18" s="44"/>
       <c r="B18" s="37"/>
       <c r="C18" s="41"/>
@@ -7589,7 +7714,7 @@
       <c r="AE18" s="41"/>
       <c r="AF18" s="47"/>
     </row>
-    <row r="19" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A19" s="44"/>
       <c r="B19" s="37"/>
       <c r="C19" s="41"/>
@@ -7623,7 +7748,7 @@
       <c r="AE19" s="41"/>
       <c r="AF19" s="47"/>
     </row>
-    <row r="20" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A20" s="44"/>
       <c r="B20" s="37"/>
       <c r="C20" s="41"/>
@@ -7657,7 +7782,7 @@
       <c r="AE20" s="41"/>
       <c r="AF20" s="47"/>
     </row>
-    <row r="21" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A21" s="44"/>
       <c r="B21" s="37"/>
       <c r="C21" s="41"/>
@@ -7691,7 +7816,7 @@
       <c r="AE21" s="41"/>
       <c r="AF21" s="47"/>
     </row>
-    <row r="22" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A22" s="44"/>
       <c r="B22" s="37"/>
       <c r="C22" s="41"/>
@@ -7725,7 +7850,7 @@
       <c r="AE22" s="41"/>
       <c r="AF22" s="47"/>
     </row>
-    <row r="23" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A23" s="44"/>
       <c r="B23" s="37"/>
       <c r="C23" s="41"/>
@@ -7759,7 +7884,7 @@
       <c r="AE23" s="41"/>
       <c r="AF23" s="47"/>
     </row>
-    <row r="24" spans="1:32" s="43" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:32" s="43" customFormat="1" ht="15">
       <c r="A24" s="44"/>
       <c r="B24" s="37"/>
       <c r="C24" s="41"/>
@@ -7793,72 +7918,72 @@
       <c r="AE24" s="41"/>
       <c r="AF24" s="47"/>
     </row>
-    <row r="25" spans="1:32" s="43" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="57"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="63"/>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="64"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="64"/>
-      <c r="T26" s="64"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="64"/>
-      <c r="W26" s="64"/>
-      <c r="X26" s="64"/>
-      <c r="Y26" s="64"/>
-      <c r="Z26" s="64"/>
-      <c r="AA26" s="64"/>
-      <c r="AB26" s="64"/>
-      <c r="AC26" s="64"/>
-      <c r="AD26" s="64"/>
-      <c r="AE26" s="64"/>
-      <c r="AF26" s="64"/>
+    <row r="25" spans="1:32" s="43" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A25" s="54"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="56"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="56"/>
+      <c r="AF25" s="60"/>
+    </row>
+    <row r="26" spans="1:32">
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="61"/>
+      <c r="V26" s="61"/>
+      <c r="W26" s="61"/>
+      <c r="X26" s="61"/>
+      <c r="Y26" s="61"/>
+      <c r="Z26" s="61"/>
+      <c r="AA26" s="61"/>
+      <c r="AB26" s="61"/>
+      <c r="AC26" s="61"/>
+      <c r="AD26" s="61"/>
+      <c r="AE26" s="61"/>
+      <c r="AF26" s="61"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
